--- a/output/StructureDefinition-PhrDocumentManifest.xlsx
+++ b/output/StructureDefinition-PhrDocumentManifest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T01:41:51-04:00</t>
+    <t>2022-09-21T01:58:34-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-PhrDocumentManifest.xlsx
+++ b/output/StructureDefinition-PhrDocumentManifest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.8</t>
+    <t>0.3.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T01:58:34-04:00</t>
+    <t>2022-09-21T12:25:18-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-PhrDocumentManifest.xlsx
+++ b/output/StructureDefinition-PhrDocumentManifest.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$27</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -30,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.9</t>
+    <t>0.3.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T12:25:18-04:00</t>
+    <t>2022-09-28T23:23:22-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -936,6 +939,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1275,7 +1293,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>27</v>
       </c>
@@ -1387,7 +1405,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>82</v>
       </c>
@@ -1501,7 +1519,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>90</v>
       </c>
@@ -1613,7 +1631,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>96</v>
       </c>
@@ -1727,7 +1745,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>102</v>
       </c>
@@ -1841,7 +1859,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>111</v>
       </c>
@@ -1955,7 +1973,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>119</v>
       </c>
@@ -2069,7 +2087,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>127</v>
       </c>
@@ -2183,7 +2201,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>135</v>
       </c>
@@ -2299,7 +2317,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>140</v>
       </c>
@@ -2411,7 +2429,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>148</v>
       </c>
@@ -2523,7 +2541,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>154</v>
       </c>
@@ -2637,7 +2655,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>165</v>
       </c>
@@ -2761,13 +2779,13 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
@@ -2863,7 +2881,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>185</v>
       </c>
@@ -2977,7 +2995,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>194</v>
       </c>
@@ -3091,7 +3109,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>203</v>
       </c>
@@ -3205,7 +3223,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>212</v>
       </c>
@@ -3317,7 +3335,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>217</v>
       </c>
@@ -3433,7 +3451,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>224</v>
       </c>
@@ -3549,7 +3567,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>232</v>
       </c>
@@ -3663,7 +3681,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>238</v>
       </c>
@@ -3775,7 +3793,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>242</v>
       </c>
@@ -3889,7 +3907,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>245</v>
       </c>
@@ -4005,7 +4023,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>250</v>
       </c>
@@ -4119,7 +4137,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>254</v>
       </c>
@@ -4234,6 +4252,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AN27">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI26">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/output/StructureDefinition-PhrDocumentManifest.xlsx
+++ b/output/StructureDefinition-PhrDocumentManifest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.10</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-28T23:23:22-07:00</t>
+    <t>2022-09-29T00:03:59-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
